--- a/public/file/template-excel-payroll/template-import-payroll_V8.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067981BE-02C1-45B2-9E29-FEDF68398F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EE340-0FC3-450D-96ED-18BBB251626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NO</t>
   </si>
@@ -36,9 +36,6 @@
     <t>EMPLOYEE ID</t>
   </si>
   <si>
-    <t>SERAGAM</t>
-  </si>
-  <si>
     <t>KOPERASI</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>TOTAL OVERTIME HOURS</t>
   </si>
   <si>
-    <t>POTONGAN TERLAMBAT</t>
-  </si>
-  <si>
     <t>OVERTIME HOLIDAY</t>
   </si>
   <si>
@@ -93,22 +87,34 @@
     <t>ALLOWANCE TRANSPORT INAP</t>
   </si>
   <si>
-    <t>POTONGAN KELEBIHAN GAJI</t>
-  </si>
-  <si>
     <t>RAPEL</t>
   </si>
   <si>
-    <t>POTONGAN ABSENSI</t>
-  </si>
-  <si>
-    <t>POTONGAN LAIN_LAIN</t>
+    <t>POT. MATERAI</t>
+  </si>
+  <si>
+    <t>POT. LAIN_LAIN</t>
+  </si>
+  <si>
+    <t>POT. KELEBIHAN GAJI</t>
+  </si>
+  <si>
+    <t>POT. TERLAMBAT</t>
+  </si>
+  <si>
+    <t>POT.  ABSENSI</t>
+  </si>
+  <si>
+    <t>POT. SERAGAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +196,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +219,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,16 +546,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
@@ -550,94 +567,185 @@
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="23" width="20.28515625" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1"/>
+    <col min="22" max="24" width="20.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="14" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" style="14" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
